--- a/test_data/issvd_rows.xlsx
+++ b/test_data/issvd_rows.xlsx
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -481,24 +481,24 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -663,13 +663,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -865,18 +865,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1030,15 +1030,15 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1738,7 +1738,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1747,12 +1747,12 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1914,24 +1914,24 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2278,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2298,18 +2298,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2463,15 +2463,15 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3171,7 +3171,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -3180,12 +3180,12 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
